--- a/src/test/resources/teda/LOAD_TEST.xlsx
+++ b/src/test/resources/teda/LOAD_TEST.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Teda\src\test\resources\teda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pad\Projects\teda\src\test\resources\teda\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE3B3F5-A504-405E-807F-7FED8FC67B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="12840" activeTab="2"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cockpit" sheetId="1" r:id="rId1"/>
@@ -92,13 +93,13 @@
     <t>#ID</t>
   </si>
   <si>
-    <t>BOBLE</t>
+    <t>FOO_BAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000000"/>
   </numFmts>
@@ -139,17 +140,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -184,39 +183,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C4:F5" totalsRowShown="0">
-  <autoFilter ref="C4:F5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="C4:F5" totalsRowShown="0">
+  <autoFilter ref="C4:F5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="TRUNCATE"/>
-    <tableColumn id="2" name="LOAD"/>
-    <tableColumn id="3" name="EXECUTE"/>
-    <tableColumn id="4" name="TEST"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TRUNCATE"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="LOAD"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EXECUTE"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="TEST"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table13578" displayName="Table13578" ref="C4:F8" totalsRowShown="0">
-  <autoFilter ref="C4:F8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13578" displayName="Table13578" ref="C4:F8" totalsRowShown="0">
+  <autoFilter ref="C4:F8" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" name="NAME" dataDxfId="3"/>
-    <tableColumn id="3" name="AGE"/>
-    <tableColumn id="4" name="AVERAGE"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="NAME" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="AGE"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="AVERAGE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="C4:F8">
-  <autoFilter ref="C4:F8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="C4:F8">
+  <autoFilter ref="C4:F8" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="#ID" totalsRowLabel="Ergebnis" dataDxfId="1"/>
-    <tableColumn id="2" name="NAME" dataDxfId="0"/>
-    <tableColumn id="3" name="AGE"/>
-    <tableColumn id="4" name="AVERAGE" totalsRowFunction="sum" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="#ID" totalsRowLabel="Ergebnis" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="NAME" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="AGE"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="AVERAGE" totalsRowFunction="sum" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -542,31 +541,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="B3:F33"/>
+  <dimension ref="B3:F10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="6" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="3" max="6" width="34.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -580,7 +579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -594,19 +593,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E10" s="4"/>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="E10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -618,7 +612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
@@ -628,30 +622,30 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
@@ -661,11 +655,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5">
@@ -675,11 +669,11 @@
         <v>12.66</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E6">
@@ -689,11 +683,11 @@
         <v>34.44</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="3" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7">
@@ -703,63 +697,63 @@
         <v>24.33</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E8">
         <v>66</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>4.3939494940000001</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -773,40 +767,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="B3:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" customWidth="1"/>
+    <col min="6" max="6" width="29.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
@@ -816,66 +810,66 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5">
         <v>22</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>12.66</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E6">
         <v>45</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>34.44</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="3" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7">
         <v>21</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>24.33</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E8">
         <v>66</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>4.3939494940000001</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="F9" s="3"/>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/test/resources/teda/LOAD_TEST.xlsx
+++ b/src/test/resources/teda/LOAD_TEST.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pad\Projects\teda\src\test\resources\teda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pad\Projects\teda-framework\src\test\resources\teda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE3B3F5-A504-405E-807F-7FED8FC67B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64DD24C-6A06-4C8B-8199-029C06292176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cockpit" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>#Teda</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>STUDENT_OUT</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
   <si>
     <t>NAME</t>
@@ -100,8 +97,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.000000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -140,15 +138,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -199,7 +199,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13578" displayName="Table13578" ref="C4:F8" totalsRowShown="0">
   <autoFilter ref="C4:F8" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="#ID" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="NAME" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="AGE"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="AVERAGE"/>
@@ -547,7 +547,7 @@
   </sheetPr>
   <dimension ref="B3:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -587,7 +587,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -619,7 +619,7 @@
   <dimension ref="B3:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -635,24 +635,24 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
@@ -660,7 +660,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>22</v>
@@ -674,7 +674,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>45</v>
@@ -688,7 +688,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>21</v>
@@ -702,12 +702,12 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>66</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="7">
         <v>4.3939494940000001</v>
       </c>
     </row>
@@ -773,41 +773,39 @@
   </sheetPr>
   <dimension ref="B3:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" customWidth="1"/>
-    <col min="6" max="6" width="29.1796875" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" customWidth="1"/>
+    <col min="4" max="4" width="32.54296875" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" customWidth="1"/>
+    <col min="6" max="6" width="36.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
@@ -815,12 +813,12 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>22</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>12.66</v>
       </c>
     </row>
@@ -829,12 +827,12 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>45</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>34.44</v>
       </c>
     </row>
@@ -843,12 +841,12 @@
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>21</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>24.33</v>
       </c>
     </row>
@@ -857,12 +855,12 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>66</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>4.3939494940000001</v>
       </c>
     </row>
@@ -872,9 +870,6 @@
       <c r="F9" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C3:E3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
